--- a/Project3TestPlan.xlsx
+++ b/Project3TestPlan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tamigreer/Documents/GitHub/CatFactsApp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6de4006441b3ed87/Documents/GitHub/CatFactsApp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0547CD3F-AD9F-CA47-91DA-62382469F685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{0547CD3F-AD9F-CA47-91DA-62382469F685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BFEB8BD-8BD6-4467-AB7D-8182FD2B8142}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Apr 19 2022" sheetId="1" r:id="rId1"/>
@@ -342,6 +342,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -352,18 +364,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -679,48 +679,48 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F13"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" customWidth="1"/>
-    <col min="4" max="4" width="35.5" customWidth="1"/>
-    <col min="5" max="5" width="28.1640625" customWidth="1"/>
-    <col min="6" max="6" width="19.5" customWidth="1"/>
-    <col min="7" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="35.42578125" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-    </row>
-    <row r="2" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+    </row>
+    <row r="2" spans="1:9" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13">
         <v>44669</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-    </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -749,7 +749,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -765,17 +765,17 @@
       <c r="F4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -804,7 +804,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -833,7 +833,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -862,7 +862,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -891,7 +891,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -920,7 +920,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -949,7 +949,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="2" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" s="2" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -978,7 +978,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -1007,48 +1007,48 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12">
+    <row r="13" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
         <v>10</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="12" t="s">
+      <c r="E13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1059,7 +1059,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:9" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -1070,10 +1070,10 @@
       <c r="H27"/>
       <c r="I27"/>
     </row>
-    <row r="28" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:I1"/>
@@ -1089,48 +1089,48 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" customWidth="1"/>
-    <col min="4" max="4" width="35.5" customWidth="1"/>
-    <col min="5" max="5" width="28.1640625" customWidth="1"/>
-    <col min="6" max="6" width="19.5" customWidth="1"/>
-    <col min="7" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="35.42578125" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-    </row>
-    <row r="2" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+    </row>
+    <row r="2" spans="1:9" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13">
         <v>44671</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-    </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1175,17 +1175,17 @@
       <c r="F4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="G4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -1204,17 +1204,17 @@
       <c r="F5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="G5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -1233,17 +1233,17 @@
       <c r="F6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="G6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -1262,17 +1262,17 @@
       <c r="F7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -1291,17 +1291,17 @@
       <c r="F8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -1417,50 +1417,50 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12">
+    <row r="13" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
         <v>10</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="12" t="s">
+      <c r="E13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="G13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:I1"/>
@@ -1476,48 +1476,48 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" customWidth="1"/>
-    <col min="4" max="4" width="35.5" customWidth="1"/>
-    <col min="5" max="5" width="28.1640625" customWidth="1"/>
-    <col min="6" max="6" width="19.5" customWidth="1"/>
-    <col min="7" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="35.42578125" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-    </row>
-    <row r="2" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+    </row>
+    <row r="2" spans="1:9" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13">
         <v>44672</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-    </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1562,17 +1562,17 @@
       <c r="F4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="G4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -1591,17 +1591,17 @@
       <c r="F5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="G5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -1620,17 +1620,17 @@
       <c r="F6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="G6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -1649,17 +1649,17 @@
       <c r="F7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -1678,17 +1678,17 @@
       <c r="F8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -1707,17 +1707,17 @@
       <c r="F9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -1736,17 +1736,17 @@
       <c r="F10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -1765,17 +1765,17 @@
       <c r="F11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -1794,60 +1794,60 @@
       <c r="F12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12">
+      <c r="G12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
         <v>10</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="12" t="s">
+      <c r="E13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="G13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:I1"/>
